--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -517,7 +517,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|MedicationRequest|ServiceRequest|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|MedicationRequest|5.0.0|ServiceRequest|5.0.0|ImmunizationRecommendation|5.0.0)
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|5.0.0)
 </t>
   </si>
   <si>
@@ -626,7 +626,7 @@
     <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason|5.0.0</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -705,7 +705,7 @@
     <t>A coded concept identifying where the medication is to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-admin-location</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-admin-location|5.0.0</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -764,7 +764,7 @@
     <t>MedicationRequest.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Medication)
+    <t xml:space="preserve">CodeableReference(Medication|5.0.0)
 </t>
   </si>
   <si>
@@ -837,7 +837,7 @@
     <t>MedicationRequest.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(Patient|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0|RelatedPerson|5.0.0|Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -853,7 +853,7 @@
     <t>MedicationRequest.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -881,7 +881,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -927,7 +927,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|Patient|5.0.0|RelatedPerson|5.0.0|Device|5.0.0)
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
     <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-intended-performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-intended-performer-role|5.0.0</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -988,7 +988,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|DeviceDefinition|RelatedPerson|CareTeam|HealthcareService)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|Patient|5.0.0|DeviceDefinition|5.0.0|RelatedPerson|5.0.0|CareTeam|5.0.0|HealthcareService|5.0.0)
 </t>
   </si>
   <si>
@@ -1010,7 +1010,7 @@
     <t>MedicationRequest.device</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(DeviceDefinition)
+    <t xml:space="preserve">CodeableReference(DeviceDefinition|5.0.0)
 </t>
   </si>
   <si>
@@ -1023,7 +1023,7 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0)
 </t>
   </si>
   <si>
@@ -1042,7 +1042,7 @@
     <t>MedicationRequest.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Condition|Observation)
+    <t xml:space="preserve">CodeableReference(Condition|5.0.0|Observation|5.0.0)
 </t>
   </si>
   <si>
@@ -1058,7 +1058,7 @@
     <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|5.0.0</t>
   </si>
   <si>
     <t>Request.reason</t>
@@ -1091,7 +1091,7 @@
     <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy|5.0.0</t>
   </si>
   <si>
     <t>Act.code where classCode = LIST and moodCode = EVN</t>
@@ -1100,7 +1100,7 @@
     <t>MedicationRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|5.0.0|ClaimResponse|5.0.0)
 </t>
   </si>
   <si>
@@ -1294,7 +1294,7 @@
     <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|5.0.0}
 </t>
   </si>
   <si>
@@ -1417,7 +1417,7 @@
     <t>MedicationRequest.dispenseRequest.dispenser</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -1451,7 +1451,7 @@
     <t>Provides information about the type of adherence packaging to be supplied for the medication dispense.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-dose-aid</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-dose-aid|5.0.0</t>
   </si>
   <si>
     <t>Supply.administerableMedication.product.asContent.container.code</t>
@@ -1536,7 +1536,7 @@
     <t>MedicationRequest.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|5.0.0)
 </t>
   </si>
   <si>
@@ -1891,7 +1891,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.9921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="134.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3563,7 +3563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>178</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>212</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>235</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>246</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>261</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>277</v>
       </c>
@@ -9488,12 +9488,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO65">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -777,7 +777,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/discharge-medication-vs</t>
+    <t>http://testSK.org/ValueSet/medication-vs</t>
   </si>
   <si>
     <t>Request.code</t>

--- a/StructureDefinition-discharge-medication-request-profile.xlsx
+++ b/StructureDefinition-discharge-medication-request-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
